--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Cxcl10-Sdc4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Cxcl10-Sdc4.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>15.6308825</v>
+        <v>8.4153035</v>
       </c>
       <c r="H2">
-        <v>31.261765</v>
+        <v>16.830607</v>
       </c>
       <c r="I2">
-        <v>0.08061597743527854</v>
+        <v>0.06421843997858546</v>
       </c>
       <c r="J2">
-        <v>0.05642173194834237</v>
+        <v>0.04492292295833487</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.451749</v>
+        <v>4.510453500000001</v>
       </c>
       <c r="N2">
-        <v>0.9034979999999999</v>
+        <v>9.020907000000001</v>
       </c>
       <c r="O2">
-        <v>0.003821260830374857</v>
+        <v>0.03796603451120199</v>
       </c>
       <c r="P2">
-        <v>0.00287943137621811</v>
+        <v>0.02933551886773785</v>
       </c>
       <c r="Q2">
-        <v>7.061235538492499</v>
+        <v>37.95683512513725</v>
       </c>
       <c r="R2">
-        <v>28.24494215397</v>
+        <v>151.827340500549</v>
       </c>
       <c r="S2">
-        <v>0.0003080546768758132</v>
+        <v>0.002438119508482529</v>
       </c>
       <c r="T2">
-        <v>0.0001624625052726248</v>
+        <v>0.001317837254038166</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>15.6308825</v>
+        <v>8.4153035</v>
       </c>
       <c r="H3">
-        <v>31.261765</v>
+        <v>16.830607</v>
       </c>
       <c r="I3">
-        <v>0.08061597743527854</v>
+        <v>0.06421843997858546</v>
       </c>
       <c r="J3">
-        <v>0.05642173194834237</v>
+        <v>0.04492292295833487</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>89.21596500000001</v>
       </c>
       <c r="O3">
-        <v>0.2515537555136401</v>
+        <v>0.2503204615781384</v>
       </c>
       <c r="P3">
-        <v>0.2843296264967679</v>
+        <v>0.2901256630359829</v>
       </c>
       <c r="Q3">
-        <v>464.8414220130376</v>
+        <v>250.2598075067926</v>
       </c>
       <c r="R3">
-        <v>2789.048532078225</v>
+        <v>1501.558845040755</v>
       </c>
       <c r="S3">
-        <v>0.02027925187824719</v>
+        <v>0.01607518953726749</v>
       </c>
       <c r="T3">
-        <v>0.01604236997117294</v>
+        <v>0.01303329280880128</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>15.6308825</v>
+        <v>8.4153035</v>
       </c>
       <c r="H4">
-        <v>31.261765</v>
+        <v>16.830607</v>
       </c>
       <c r="I4">
-        <v>0.08061597743527854</v>
+        <v>0.06421843997858546</v>
       </c>
       <c r="J4">
-        <v>0.05642173194834237</v>
+        <v>0.04492292295833487</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>22.95118433333333</v>
+        <v>13.79660466666667</v>
       </c>
       <c r="N4">
-        <v>68.85355300000001</v>
+        <v>41.389814</v>
       </c>
       <c r="O4">
-        <v>0.194139802641909</v>
+        <v>0.1161307546817802</v>
       </c>
       <c r="P4">
-        <v>0.2194349969477482</v>
+        <v>0.1345975154747921</v>
       </c>
       <c r="Q4">
-        <v>358.7472655501742</v>
+        <v>116.1026155395163</v>
       </c>
       <c r="R4">
-        <v>2152.483593301045</v>
+        <v>696.6156932370981</v>
       </c>
       <c r="S4">
-        <v>0.01565076994906956</v>
+        <v>0.007457735899199736</v>
       </c>
       <c r="T4">
-        <v>0.01238090257787117</v>
+        <v>0.006046513818057369</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>15.6308825</v>
+        <v>8.4153035</v>
       </c>
       <c r="H5">
-        <v>31.261765</v>
+        <v>16.830607</v>
       </c>
       <c r="I5">
-        <v>0.08061597743527854</v>
+        <v>0.06421843997858546</v>
       </c>
       <c r="J5">
-        <v>0.05642173194834237</v>
+        <v>0.04492292295833487</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>40.4313585</v>
+        <v>44.3885385</v>
       </c>
       <c r="N5">
-        <v>80.862717</v>
+        <v>88.77707700000001</v>
       </c>
       <c r="O5">
-        <v>0.3420013471084464</v>
+        <v>0.373633556934534</v>
       </c>
       <c r="P5">
-        <v>0.2577079799800836</v>
+        <v>0.2886984221604453</v>
       </c>
       <c r="Q5">
-        <v>631.9778140288763</v>
+        <v>373.5430233989348</v>
       </c>
       <c r="R5">
-        <v>2527.911256115505</v>
+        <v>1494.172093595739</v>
       </c>
       <c r="S5">
-        <v>0.02757077288132938</v>
+        <v>0.02399416414998577</v>
       </c>
       <c r="T5">
-        <v>0.01454033056738506</v>
+        <v>0.01296917697690652</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>15.6308825</v>
+        <v>8.4153035</v>
       </c>
       <c r="H6">
-        <v>31.261765</v>
+        <v>16.830607</v>
       </c>
       <c r="I6">
-        <v>0.08061597743527854</v>
+        <v>0.06421843997858546</v>
       </c>
       <c r="J6">
-        <v>0.05642173194834237</v>
+        <v>0.04492292295833487</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.272071333333333</v>
+        <v>4.496439</v>
       </c>
       <c r="N6">
-        <v>3.816214</v>
+        <v>13.489317</v>
       </c>
       <c r="O6">
-        <v>0.01076021498555478</v>
+        <v>0.03784806965674616</v>
       </c>
       <c r="P6">
-        <v>0.01216220326991628</v>
+        <v>0.04386655503336825</v>
       </c>
       <c r="Q6">
-        <v>19.88359754295167</v>
+        <v>37.8388988542365</v>
       </c>
       <c r="R6">
-        <v>119.30158525771</v>
+        <v>227.033393125419</v>
       </c>
       <c r="S6">
-        <v>0.0008674452484742299</v>
+        <v>0.002430543989557075</v>
       </c>
       <c r="T6">
-        <v>0.0006862125727964694</v>
+        <v>0.001970613872211558</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>15.6308825</v>
+        <v>8.4153035</v>
       </c>
       <c r="H7">
-        <v>31.261765</v>
+        <v>16.830607</v>
       </c>
       <c r="I7">
-        <v>0.08061597743527854</v>
+        <v>0.06421843997858546</v>
       </c>
       <c r="J7">
-        <v>0.05642173194834237</v>
+        <v>0.04492292295833487</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>23.37486266666667</v>
+        <v>21.871643</v>
       </c>
       <c r="N7">
-        <v>70.124588</v>
+        <v>65.61492899999999</v>
       </c>
       <c r="O7">
-        <v>0.1977236189200749</v>
+        <v>0.1841011226375993</v>
       </c>
       <c r="P7">
-        <v>0.223485761929266</v>
+        <v>0.2133763254276736</v>
       </c>
       <c r="Q7">
-        <v>365.3697317963034</v>
+        <v>184.0565138886505</v>
       </c>
       <c r="R7">
-        <v>2192.21839077782</v>
+        <v>1104.339083331903</v>
       </c>
       <c r="S7">
-        <v>0.01593968280128237</v>
+        <v>0.01182268689409287</v>
       </c>
       <c r="T7">
-        <v>0.0126094537538441</v>
+        <v>0.009585488228319972</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,13 +918,13 @@
         <v>25.268178</v>
       </c>
       <c r="H8">
-        <v>75.804534</v>
+        <v>75.80453399999999</v>
       </c>
       <c r="I8">
-        <v>0.130320144590595</v>
+        <v>0.192825246559582</v>
       </c>
       <c r="J8">
-        <v>0.1368132316846795</v>
+        <v>0.202331457253709</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.451749</v>
+        <v>4.510453500000001</v>
       </c>
       <c r="N8">
-        <v>0.9034979999999999</v>
+        <v>9.020907000000001</v>
       </c>
       <c r="O8">
-        <v>0.003821260830374857</v>
+        <v>0.03796603451120199</v>
       </c>
       <c r="P8">
-        <v>0.00287943137621811</v>
+        <v>0.02933551886773785</v>
       </c>
       <c r="Q8">
-        <v>11.414874143322</v>
+        <v>113.970941898723</v>
       </c>
       <c r="R8">
-        <v>68.489244859932</v>
+        <v>683.825651392338</v>
       </c>
       <c r="S8">
-        <v>0.0004979872639328286</v>
+        <v>0.007320809965512124</v>
       </c>
       <c r="T8">
-        <v>0.0003939443119946639</v>
+        <v>0.005935498281803075</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,13 +980,13 @@
         <v>25.268178</v>
       </c>
       <c r="H9">
-        <v>75.804534</v>
+        <v>75.80453399999999</v>
       </c>
       <c r="I9">
-        <v>0.130320144590595</v>
+        <v>0.192825246559582</v>
       </c>
       <c r="J9">
-        <v>0.1368132316846795</v>
+        <v>0.202331457253709</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>89.21596500000001</v>
       </c>
       <c r="O9">
-        <v>0.2515537555136401</v>
+        <v>0.2503204615781384</v>
       </c>
       <c r="P9">
-        <v>0.2843296264967679</v>
+        <v>0.2901256630359829</v>
       </c>
       <c r="Q9">
-        <v>751.4416280205902</v>
+        <v>751.44162802059</v>
       </c>
       <c r="R9">
-        <v>6762.974652185311</v>
+        <v>6762.97465218531</v>
       </c>
       <c r="S9">
-        <v>0.03278252179084477</v>
+        <v>0.04826810472271291</v>
       </c>
       <c r="T9">
-        <v>0.0389000550647207</v>
+        <v>0.05870154818876896</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,13 +1042,13 @@
         <v>25.268178</v>
       </c>
       <c r="H10">
-        <v>75.804534</v>
+        <v>75.80453399999999</v>
       </c>
       <c r="I10">
-        <v>0.130320144590595</v>
+        <v>0.192825246559582</v>
       </c>
       <c r="J10">
-        <v>0.1368132316846795</v>
+        <v>0.202331457253709</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>22.95118433333333</v>
+        <v>13.79660466666667</v>
       </c>
       <c r="N10">
-        <v>68.85355300000001</v>
+        <v>41.389814</v>
       </c>
       <c r="O10">
-        <v>0.194139802641909</v>
+        <v>0.1161307546817802</v>
       </c>
       <c r="P10">
-        <v>0.2194349969477482</v>
+        <v>0.1345975154747921</v>
       </c>
       <c r="Q10">
-        <v>579.9346110454781</v>
+        <v>348.615062512964</v>
       </c>
       <c r="R10">
-        <v>5219.411499409302</v>
+        <v>3137.535562616676</v>
       </c>
       <c r="S10">
-        <v>0.02530032715108317</v>
+        <v>0.02239294140466461</v>
       </c>
       <c r="T10">
-        <v>0.03002161107713922</v>
+        <v>0.02723331144874333</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,13 +1104,13 @@
         <v>25.268178</v>
       </c>
       <c r="H11">
-        <v>75.804534</v>
+        <v>75.80453399999999</v>
       </c>
       <c r="I11">
-        <v>0.130320144590595</v>
+        <v>0.192825246559582</v>
       </c>
       <c r="J11">
-        <v>0.1368132316846795</v>
+        <v>0.202331457253709</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>40.4313585</v>
+        <v>44.3885385</v>
       </c>
       <c r="N11">
-        <v>80.862717</v>
+        <v>88.77707700000001</v>
       </c>
       <c r="O11">
-        <v>0.3420013471084464</v>
+        <v>0.373633556934534</v>
       </c>
       <c r="P11">
-        <v>0.2577079799800836</v>
+        <v>0.2886984221604453</v>
       </c>
       <c r="Q11">
-        <v>1021.626763359813</v>
+        <v>1121.617491977853</v>
       </c>
       <c r="R11">
-        <v>6129.760580158879</v>
+        <v>6729.704951867117</v>
       </c>
       <c r="S11">
-        <v>0.04456966500535101</v>
+        <v>0.07204598273883514</v>
       </c>
       <c r="T11">
-        <v>0.03525786157200594</v>
+        <v>0.05841277246256937</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1166,13 +1166,13 @@
         <v>25.268178</v>
       </c>
       <c r="H12">
-        <v>75.804534</v>
+        <v>75.80453399999999</v>
       </c>
       <c r="I12">
-        <v>0.130320144590595</v>
+        <v>0.192825246559582</v>
       </c>
       <c r="J12">
-        <v>0.1368132316846795</v>
+        <v>0.202331457253709</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.272071333333333</v>
+        <v>4.496439</v>
       </c>
       <c r="N12">
-        <v>3.816214</v>
+        <v>13.489317</v>
       </c>
       <c r="O12">
-        <v>0.01076021498555478</v>
+        <v>0.03784806965674616</v>
       </c>
       <c r="P12">
-        <v>0.01216220326991628</v>
+        <v>0.04386655503336825</v>
       </c>
       <c r="Q12">
-        <v>32.142924879364</v>
+        <v>113.616821018142</v>
       </c>
       <c r="R12">
-        <v>289.286323914276</v>
+        <v>1022.551389163278</v>
       </c>
       <c r="S12">
-        <v>0.001402272772743386</v>
+        <v>0.007298063363366314</v>
       </c>
       <c r="T12">
-        <v>0.001663950333763223</v>
+        <v>0.008875584004601421</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1228,13 +1228,13 @@
         <v>25.268178</v>
       </c>
       <c r="H13">
-        <v>75.804534</v>
+        <v>75.80453399999999</v>
       </c>
       <c r="I13">
-        <v>0.130320144590595</v>
+        <v>0.192825246559582</v>
       </c>
       <c r="J13">
-        <v>0.1368132316846795</v>
+        <v>0.202331457253709</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>23.37486266666667</v>
+        <v>21.871643</v>
       </c>
       <c r="N13">
-        <v>70.124588</v>
+        <v>65.61492899999999</v>
       </c>
       <c r="O13">
-        <v>0.1977236189200749</v>
+        <v>0.1841011226375993</v>
       </c>
       <c r="P13">
-        <v>0.223485761929266</v>
+        <v>0.2133763254276736</v>
       </c>
       <c r="Q13">
-        <v>590.6401905868881</v>
+        <v>552.6565684764538</v>
       </c>
       <c r="R13">
-        <v>5315.761715281992</v>
+        <v>4973.909116288084</v>
       </c>
       <c r="S13">
-        <v>0.02576737060663988</v>
+        <v>0.03549934436449093</v>
       </c>
       <c r="T13">
-        <v>0.0305758093250558</v>
+        <v>0.04317274286722284</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>38.99944133333333</v>
+        <v>40.48325633333334</v>
       </c>
       <c r="H14">
-        <v>116.998324</v>
+        <v>121.449769</v>
       </c>
       <c r="I14">
-        <v>0.2011388725183283</v>
+        <v>0.3089337855705213</v>
       </c>
       <c r="J14">
-        <v>0.2111604407215431</v>
+        <v>0.3241641027025684</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.451749</v>
+        <v>4.510453500000001</v>
       </c>
       <c r="N14">
-        <v>0.9034979999999999</v>
+        <v>9.020907000000001</v>
       </c>
       <c r="O14">
-        <v>0.003821260830374857</v>
+        <v>0.03796603451120199</v>
       </c>
       <c r="P14">
-        <v>0.00287943137621811</v>
+        <v>0.02933551886773785</v>
       </c>
       <c r="Q14">
-        <v>17.617958622892</v>
+        <v>182.5978452200805</v>
       </c>
       <c r="R14">
-        <v>105.707751737352</v>
+        <v>1095.587071320483</v>
       </c>
       <c r="S14">
-        <v>0.0007686040950200497</v>
+        <v>0.01172899076464668</v>
       </c>
       <c r="T14">
-        <v>0.0006080219984296555</v>
+        <v>0.009509522151074506</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>38.99944133333333</v>
+        <v>40.48325633333334</v>
       </c>
       <c r="H15">
-        <v>116.998324</v>
+        <v>121.449769</v>
       </c>
       <c r="I15">
-        <v>0.2011388725183283</v>
+        <v>0.3089337855705213</v>
       </c>
       <c r="J15">
-        <v>0.2111604407215431</v>
+        <v>0.3241641027025684</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>89.21596500000001</v>
       </c>
       <c r="O15">
-        <v>0.2515537555136401</v>
+        <v>0.2503204615781384</v>
       </c>
       <c r="P15">
-        <v>0.2843296264967679</v>
+        <v>0.2901256630359829</v>
       </c>
       <c r="Q15">
-        <v>1159.79093100474</v>
+        <v>1203.917593373565</v>
       </c>
       <c r="R15">
-        <v>10438.11837904266</v>
+        <v>10835.25834036209</v>
       </c>
       <c r="S15">
-        <v>0.05059723876176479</v>
+        <v>0.07733244780109451</v>
       </c>
       <c r="T15">
-        <v>0.06003916924124925</v>
+        <v>0.09404832522904712</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>38.99944133333333</v>
+        <v>40.48325633333334</v>
       </c>
       <c r="H16">
-        <v>116.998324</v>
+        <v>121.449769</v>
       </c>
       <c r="I16">
-        <v>0.2011388725183283</v>
+        <v>0.3089337855705213</v>
       </c>
       <c r="J16">
-        <v>0.2111604407215431</v>
+        <v>0.3241641027025684</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>22.95118433333333</v>
+        <v>13.79660466666667</v>
       </c>
       <c r="N16">
-        <v>68.85355300000001</v>
+        <v>41.389814</v>
       </c>
       <c r="O16">
-        <v>0.194139802641909</v>
+        <v>0.1161307546817802</v>
       </c>
       <c r="P16">
-        <v>0.2194349969477482</v>
+        <v>0.1345975154747921</v>
       </c>
       <c r="Q16">
-        <v>895.0833669383524</v>
+        <v>558.5314832503296</v>
       </c>
       <c r="R16">
-        <v>8055.750302445173</v>
+        <v>5026.783349252966</v>
       </c>
       <c r="S16">
-        <v>0.03904906101432435</v>
+        <v>0.0358767136650039</v>
       </c>
       <c r="T16">
-        <v>0.04633599066521698</v>
+        <v>0.04363168282988104</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>38.99944133333333</v>
+        <v>40.48325633333334</v>
       </c>
       <c r="H17">
-        <v>116.998324</v>
+        <v>121.449769</v>
       </c>
       <c r="I17">
-        <v>0.2011388725183283</v>
+        <v>0.3089337855705213</v>
       </c>
       <c r="J17">
-        <v>0.2111604407215431</v>
+        <v>0.3241641027025684</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>40.4313585</v>
+        <v>44.3885385</v>
       </c>
       <c r="N17">
-        <v>80.862717</v>
+        <v>88.77707700000001</v>
       </c>
       <c r="O17">
-        <v>0.3420013471084464</v>
+        <v>0.373633556934534</v>
       </c>
       <c r="P17">
-        <v>0.2577079799800836</v>
+        <v>0.2886984221604453</v>
       </c>
       <c r="Q17">
-        <v>1576.800393847718</v>
+        <v>1796.992582357536</v>
       </c>
       <c r="R17">
-        <v>9460.802363086308</v>
+        <v>10781.95549414521</v>
       </c>
       <c r="S17">
-        <v>0.06878976535714235</v>
+        <v>0.1154280291599645</v>
       </c>
       <c r="T17">
-        <v>0.05441773063005307</v>
+        <v>0.09358566497128804</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>38.99944133333333</v>
+        <v>40.48325633333334</v>
       </c>
       <c r="H18">
-        <v>116.998324</v>
+        <v>121.449769</v>
       </c>
       <c r="I18">
-        <v>0.2011388725183283</v>
+        <v>0.3089337855705213</v>
       </c>
       <c r="J18">
-        <v>0.2111604407215431</v>
+        <v>0.3241641027025684</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.272071333333333</v>
+        <v>4.496439</v>
       </c>
       <c r="N18">
-        <v>3.816214</v>
+        <v>13.489317</v>
       </c>
       <c r="O18">
-        <v>0.01076021498555478</v>
+        <v>0.03784806965674616</v>
       </c>
       <c r="P18">
-        <v>0.01216220326991628</v>
+        <v>0.04386655503336825</v>
       </c>
       <c r="Q18">
-        <v>49.61007133614844</v>
+        <v>182.030492624197</v>
       </c>
       <c r="R18">
-        <v>446.490642025336</v>
+        <v>1638.274433617773</v>
       </c>
       <c r="S18">
-        <v>0.002164297510249308</v>
+        <v>0.01169254743559537</v>
       </c>
       <c r="T18">
-        <v>0.002568176202620514</v>
+        <v>0.01421996245104465</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>38.99944133333333</v>
+        <v>40.48325633333334</v>
       </c>
       <c r="H19">
-        <v>116.998324</v>
+        <v>121.449769</v>
       </c>
       <c r="I19">
-        <v>0.2011388725183283</v>
+        <v>0.3089337855705213</v>
       </c>
       <c r="J19">
-        <v>0.2111604407215431</v>
+        <v>0.3241641027025684</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>23.37486266666667</v>
+        <v>21.871643</v>
       </c>
       <c r="N19">
-        <v>70.124588</v>
+        <v>65.61492899999999</v>
       </c>
       <c r="O19">
-        <v>0.1977236189200749</v>
+        <v>0.1841011226375993</v>
       </c>
       <c r="P19">
-        <v>0.223485761929266</v>
+        <v>0.2133763254276736</v>
       </c>
       <c r="Q19">
-        <v>911.6065852433902</v>
+        <v>885.4353300001555</v>
       </c>
       <c r="R19">
-        <v>8204.459267190512</v>
+        <v>7968.9179700014</v>
       </c>
       <c r="S19">
-        <v>0.03976990577982747</v>
+        <v>0.05687505674421634</v>
       </c>
       <c r="T19">
-        <v>0.04719135198397367</v>
+        <v>0.06916894507023305</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>11.9753255</v>
+        <v>10.0550545</v>
       </c>
       <c r="H20">
-        <v>23.950651</v>
+        <v>20.110109</v>
       </c>
       <c r="I20">
-        <v>0.06176251214786597</v>
+        <v>0.07673162517426207</v>
       </c>
       <c r="J20">
-        <v>0.04322651682367577</v>
+        <v>0.05367630990912667</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.451749</v>
+        <v>4.510453500000001</v>
       </c>
       <c r="N20">
-        <v>0.9034979999999999</v>
+        <v>9.020907000000001</v>
       </c>
       <c r="O20">
-        <v>0.003821260830374857</v>
+        <v>0.03796603451120199</v>
       </c>
       <c r="P20">
-        <v>0.00287943137621811</v>
+        <v>0.02933551886773785</v>
       </c>
       <c r="Q20">
-        <v>5.4098413192995</v>
+        <v>45.35285576221576</v>
       </c>
       <c r="R20">
-        <v>21.639365277198</v>
+        <v>181.411423048863</v>
       </c>
       <c r="S20">
-        <v>0.0002360106684561915</v>
+        <v>0.002913195529466649</v>
       </c>
       <c r="T20">
-        <v>0.000124467788826712</v>
+        <v>0.001574622402089729</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>11.9753255</v>
+        <v>10.0550545</v>
       </c>
       <c r="H21">
-        <v>23.950651</v>
+        <v>20.110109</v>
       </c>
       <c r="I21">
-        <v>0.06176251214786597</v>
+        <v>0.07673162517426207</v>
       </c>
       <c r="J21">
-        <v>0.04322651682367577</v>
+        <v>0.05367630990912667</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>89.21596500000001</v>
       </c>
       <c r="O21">
-        <v>0.2515537555136401</v>
+        <v>0.2503204615781384</v>
       </c>
       <c r="P21">
-        <v>0.2843296264967679</v>
+        <v>0.2901256630359829</v>
       </c>
       <c r="Q21">
-        <v>356.1300735572026</v>
+        <v>299.0237967816976</v>
       </c>
       <c r="R21">
-        <v>2136.780441343215</v>
+        <v>1794.142780690185</v>
       </c>
       <c r="S21">
-        <v>0.01553659188075251</v>
+        <v>0.01920749583126198</v>
       </c>
       <c r="T21">
-        <v>0.01229057938323198</v>
+        <v>0.01557287500171027</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>11.9753255</v>
+        <v>10.0550545</v>
       </c>
       <c r="H22">
-        <v>23.950651</v>
+        <v>20.110109</v>
       </c>
       <c r="I22">
-        <v>0.06176251214786597</v>
+        <v>0.07673162517426207</v>
       </c>
       <c r="J22">
-        <v>0.04322651682367577</v>
+        <v>0.05367630990912667</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>22.95118433333333</v>
+        <v>13.79660466666667</v>
       </c>
       <c r="N22">
-        <v>68.85355300000001</v>
+        <v>41.389814</v>
       </c>
       <c r="O22">
-        <v>0.194139802641909</v>
+        <v>0.1161307546817802</v>
       </c>
       <c r="P22">
-        <v>0.2194349969477482</v>
+        <v>0.1345975154747921</v>
       </c>
       <c r="Q22">
-        <v>274.8479030021672</v>
+        <v>138.7256118382877</v>
       </c>
       <c r="R22">
-        <v>1649.087418013003</v>
+        <v>832.3536710297261</v>
       </c>
       <c r="S22">
-        <v>0.01199056191905521</v>
+        <v>0.008910901539446542</v>
       </c>
       <c r="T22">
-        <v>0.009485410587265077</v>
+        <v>0.007224697953623412</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>11.9753255</v>
+        <v>10.0550545</v>
       </c>
       <c r="H23">
-        <v>23.950651</v>
+        <v>20.110109</v>
       </c>
       <c r="I23">
-        <v>0.06176251214786597</v>
+        <v>0.07673162517426207</v>
       </c>
       <c r="J23">
-        <v>0.04322651682367577</v>
+        <v>0.05367630990912667</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>40.4313585</v>
+        <v>44.3885385</v>
       </c>
       <c r="N23">
-        <v>80.862717</v>
+        <v>88.77707700000001</v>
       </c>
       <c r="O23">
-        <v>0.3420013471084464</v>
+        <v>0.373633556934534</v>
       </c>
       <c r="P23">
-        <v>0.2577079799800836</v>
+        <v>0.2886984221604453</v>
       </c>
       <c r="Q23">
-        <v>484.1786784446918</v>
+        <v>446.3291737928483</v>
       </c>
       <c r="R23">
-        <v>1936.714713778767</v>
+        <v>1785.316695171393</v>
       </c>
       <c r="S23">
-        <v>0.02112286235537195</v>
+        <v>0.02866951004322697</v>
       </c>
       <c r="T23">
-        <v>0.01113981833220458</v>
+        <v>0.01549626597815994</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>11.9753255</v>
+        <v>10.0550545</v>
       </c>
       <c r="H24">
-        <v>23.950651</v>
+        <v>20.110109</v>
       </c>
       <c r="I24">
-        <v>0.06176251214786597</v>
+        <v>0.07673162517426207</v>
       </c>
       <c r="J24">
-        <v>0.04322651682367577</v>
+        <v>0.05367630990912667</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.272071333333333</v>
+        <v>4.496439</v>
       </c>
       <c r="N24">
-        <v>3.816214</v>
+        <v>13.489317</v>
       </c>
       <c r="O24">
-        <v>0.01076021498555478</v>
+        <v>0.03784806965674616</v>
       </c>
       <c r="P24">
-        <v>0.01216220326991628</v>
+        <v>0.04386655503336825</v>
       </c>
       <c r="Q24">
-        <v>15.23346827588567</v>
+        <v>45.2119392009255</v>
       </c>
       <c r="R24">
-        <v>91.40080965531401</v>
+        <v>271.271635205553</v>
       </c>
       <c r="S24">
-        <v>0.0006645779087589765</v>
+        <v>0.002904143894470808</v>
       </c>
       <c r="T24">
-        <v>0.0005257296842600004</v>
+        <v>0.002354594802616834</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>11.9753255</v>
+        <v>10.0550545</v>
       </c>
       <c r="H25">
-        <v>23.950651</v>
+        <v>20.110109</v>
       </c>
       <c r="I25">
-        <v>0.06176251214786597</v>
+        <v>0.07673162517426207</v>
       </c>
       <c r="J25">
-        <v>0.04322651682367577</v>
+        <v>0.05367630990912667</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>23.37486266666667</v>
+        <v>21.871643</v>
       </c>
       <c r="N25">
-        <v>70.124588</v>
+        <v>65.61492899999999</v>
       </c>
       <c r="O25">
-        <v>0.1977236189200749</v>
+        <v>0.1841011226375993</v>
       </c>
       <c r="P25">
-        <v>0.223485761929266</v>
+        <v>0.2133763254276736</v>
       </c>
       <c r="Q25">
-        <v>279.9215889511314</v>
+        <v>219.9205623695435</v>
       </c>
       <c r="R25">
-        <v>1679.529533706788</v>
+        <v>1319.523374217261</v>
       </c>
       <c r="S25">
-        <v>0.01221190741547115</v>
+        <v>0.01412637833638913</v>
       </c>
       <c r="T25">
-        <v>0.009660511047887415</v>
+        <v>0.01145325377092647</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>23.64038533333333</v>
+        <v>32.434321</v>
       </c>
       <c r="H26">
-        <v>70.921156</v>
+        <v>97.30296300000001</v>
       </c>
       <c r="I26">
-        <v>0.1219248350560686</v>
+        <v>0.247511155882218</v>
       </c>
       <c r="J26">
-        <v>0.1279996332036458</v>
+        <v>0.2597133609302807</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.451749</v>
+        <v>4.510453500000001</v>
       </c>
       <c r="N26">
-        <v>0.9034979999999999</v>
+        <v>9.020907000000001</v>
       </c>
       <c r="O26">
-        <v>0.003821260830374857</v>
+        <v>0.03796603451120199</v>
       </c>
       <c r="P26">
-        <v>0.00287943137621811</v>
+        <v>0.02933551886773785</v>
       </c>
       <c r="Q26">
-        <v>10.679520433948</v>
+        <v>146.2934966745735</v>
       </c>
       <c r="R26">
-        <v>64.077122603688</v>
+        <v>877.7609800474412</v>
       </c>
       <c r="S26">
-        <v>0.0004659065964496702</v>
+        <v>0.009397017086131783</v>
       </c>
       <c r="T26">
-        <v>0.0003685661599909871</v>
+        <v>0.00761882619977386</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>23.64038533333333</v>
+        <v>32.434321</v>
       </c>
       <c r="H27">
-        <v>70.921156</v>
+        <v>97.30296300000001</v>
       </c>
       <c r="I27">
-        <v>0.1219248350560686</v>
+        <v>0.247511155882218</v>
       </c>
       <c r="J27">
-        <v>0.1279996332036458</v>
+        <v>0.2597133609302807</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>89.21596500000001</v>
       </c>
       <c r="O27">
-        <v>0.2515537555136401</v>
+        <v>0.2503204615781384</v>
       </c>
       <c r="P27">
-        <v>0.2843296264967679</v>
+        <v>0.2901256630359829</v>
       </c>
       <c r="Q27">
-        <v>703.0332634950601</v>
+        <v>964.5530823782553</v>
       </c>
       <c r="R27">
-        <v>6327.29937145554</v>
+        <v>8680.977741404296</v>
       </c>
       <c r="S27">
-        <v>0.03067065014873518</v>
+        <v>0.06195710678617536</v>
       </c>
       <c r="T27">
-        <v>0.0363940879005159</v>
+        <v>0.07534951103920122</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>23.64038533333333</v>
+        <v>32.434321</v>
       </c>
       <c r="H28">
-        <v>70.921156</v>
+        <v>97.30296300000001</v>
       </c>
       <c r="I28">
-        <v>0.1219248350560686</v>
+        <v>0.247511155882218</v>
       </c>
       <c r="J28">
-        <v>0.1279996332036458</v>
+        <v>0.2597133609302807</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>22.95118433333333</v>
+        <v>13.79660466666667</v>
       </c>
       <c r="N28">
-        <v>68.85355300000001</v>
+        <v>41.389814</v>
       </c>
       <c r="O28">
-        <v>0.194139802641909</v>
+        <v>0.1161307546817802</v>
       </c>
       <c r="P28">
-        <v>0.2194349969477482</v>
+        <v>0.1345975154747921</v>
       </c>
       <c r="Q28">
-        <v>542.5748414963631</v>
+        <v>447.4835044687647</v>
       </c>
       <c r="R28">
-        <v>4883.173573467268</v>
+        <v>4027.351540218882</v>
       </c>
       <c r="S28">
-        <v>0.02367046341493247</v>
+        <v>0.02874365732476172</v>
       </c>
       <c r="T28">
-        <v>0.02808759912135491</v>
+        <v>0.03495677311682371</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>23.64038533333333</v>
+        <v>32.434321</v>
       </c>
       <c r="H29">
-        <v>70.921156</v>
+        <v>97.30296300000001</v>
       </c>
       <c r="I29">
-        <v>0.1219248350560686</v>
+        <v>0.247511155882218</v>
       </c>
       <c r="J29">
-        <v>0.1279996332036458</v>
+        <v>0.2597133609302807</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>40.4313585</v>
+        <v>44.3885385</v>
       </c>
       <c r="N29">
-        <v>80.862717</v>
+        <v>88.77707700000001</v>
       </c>
       <c r="O29">
-        <v>0.3420013471084464</v>
+        <v>0.373633556934534</v>
       </c>
       <c r="P29">
-        <v>0.2577079799800836</v>
+        <v>0.2886984221604453</v>
       </c>
       <c r="Q29">
-        <v>955.812894490142</v>
+        <v>1439.712106429859</v>
       </c>
       <c r="R29">
-        <v>5734.877366940852</v>
+        <v>8638.272638579152</v>
       </c>
       <c r="S29">
-        <v>0.0416984578351506</v>
+        <v>0.09247847355325101</v>
       </c>
       <c r="T29">
-        <v>0.0329865269111032</v>
+        <v>0.07497883751455826</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>23.64038533333333</v>
+        <v>32.434321</v>
       </c>
       <c r="H30">
-        <v>70.921156</v>
+        <v>97.30296300000001</v>
       </c>
       <c r="I30">
-        <v>0.1219248350560686</v>
+        <v>0.247511155882218</v>
       </c>
       <c r="J30">
-        <v>0.1279996332036458</v>
+        <v>0.2597133609302807</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>1.272071333333333</v>
+        <v>4.496439</v>
       </c>
       <c r="N30">
-        <v>3.816214</v>
+        <v>13.489317</v>
       </c>
       <c r="O30">
-        <v>0.01076021498555478</v>
+        <v>0.03784806965674616</v>
       </c>
       <c r="P30">
-        <v>0.01216220326991628</v>
+        <v>0.04386655503336825</v>
       </c>
       <c r="Q30">
-        <v>30.07225649148711</v>
+        <v>145.838945882919</v>
       </c>
       <c r="R30">
-        <v>270.650308423384</v>
+        <v>1312.550512946271</v>
       </c>
       <c r="S30">
-        <v>0.001311937437281604</v>
+        <v>0.009367819468651943</v>
       </c>
       <c r="T30">
-        <v>0.001556757557497465</v>
+        <v>0.01139273044014919</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>23.64038533333333</v>
+        <v>32.434321</v>
       </c>
       <c r="H31">
-        <v>70.921156</v>
+        <v>97.30296300000001</v>
       </c>
       <c r="I31">
-        <v>0.1219248350560686</v>
+        <v>0.247511155882218</v>
       </c>
       <c r="J31">
-        <v>0.1279996332036458</v>
+        <v>0.2597133609302807</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>23.37486266666667</v>
+        <v>21.871643</v>
       </c>
       <c r="N31">
-        <v>70.124588</v>
+        <v>65.61492899999999</v>
       </c>
       <c r="O31">
-        <v>0.1977236189200749</v>
+        <v>0.1841011226375993</v>
       </c>
       <c r="P31">
-        <v>0.223485761929266</v>
+        <v>0.2133763254276736</v>
       </c>
       <c r="Q31">
-        <v>552.5907605537476</v>
+        <v>709.3918898594029</v>
       </c>
       <c r="R31">
-        <v>4973.316844983728</v>
+        <v>6384.527008734626</v>
       </c>
       <c r="S31">
-        <v>0.0241074196235191</v>
+        <v>0.04556708166324617</v>
       </c>
       <c r="T31">
-        <v>0.02860609555318336</v>
+        <v>0.05541668261977443</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>78.37889633333333</v>
+        <v>14.38574166666667</v>
       </c>
       <c r="H32">
-        <v>235.136689</v>
+        <v>43.157225</v>
       </c>
       <c r="I32">
-        <v>0.4042376582518636</v>
+        <v>0.1097797468348313</v>
       </c>
       <c r="J32">
-        <v>0.4243784456181135</v>
+        <v>0.1151918462459805</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>0.451749</v>
+        <v>4.510453500000001</v>
       </c>
       <c r="N32">
-        <v>0.9034979999999999</v>
+        <v>9.020907000000001</v>
       </c>
       <c r="O32">
-        <v>0.003821260830374857</v>
+        <v>0.03796603451120199</v>
       </c>
       <c r="P32">
-        <v>0.00287943137621811</v>
+        <v>0.02933551886773785</v>
       </c>
       <c r="Q32">
-        <v>35.40758803968699</v>
+        <v>64.88621885051252</v>
       </c>
       <c r="R32">
-        <v>212.445528238122</v>
+        <v>389.3173131030751</v>
       </c>
       <c r="S32">
-        <v>0.001544697529640304</v>
+        <v>0.004167901656962221</v>
       </c>
       <c r="T32">
-        <v>0.001221968611703467</v>
+        <v>0.00337921257895852</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>78.37889633333333</v>
+        <v>14.38574166666667</v>
       </c>
       <c r="H33">
-        <v>235.136689</v>
+        <v>43.157225</v>
       </c>
       <c r="I33">
-        <v>0.4042376582518636</v>
+        <v>0.1097797468348313</v>
       </c>
       <c r="J33">
-        <v>0.4243784456181135</v>
+        <v>0.1151918462459805</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>89.21596500000001</v>
       </c>
       <c r="O33">
-        <v>0.2515537555136401</v>
+        <v>0.2503204615781384</v>
       </c>
       <c r="P33">
-        <v>0.2843296264967679</v>
+        <v>0.2901256630359829</v>
       </c>
       <c r="Q33">
-        <v>2330.882957337765</v>
+        <v>427.8126083441251</v>
       </c>
       <c r="R33">
-        <v>20977.94661603989</v>
+        <v>3850.313475097126</v>
       </c>
       <c r="S33">
-        <v>0.1016875010532957</v>
+        <v>0.02748011689962614</v>
       </c>
       <c r="T33">
-        <v>0.1206633649358771</v>
+        <v>0.0334201107684541</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>78.37889633333333</v>
+        <v>14.38574166666667</v>
       </c>
       <c r="H34">
-        <v>235.136689</v>
+        <v>43.157225</v>
       </c>
       <c r="I34">
-        <v>0.4042376582518636</v>
+        <v>0.1097797468348313</v>
       </c>
       <c r="J34">
-        <v>0.4243784456181135</v>
+        <v>0.1151918462459805</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>22.95118433333333</v>
+        <v>13.79660466666667</v>
       </c>
       <c r="N34">
-        <v>68.85355300000001</v>
+        <v>41.389814</v>
       </c>
       <c r="O34">
-        <v>0.194139802641909</v>
+        <v>0.1161307546817802</v>
       </c>
       <c r="P34">
-        <v>0.2194349969477482</v>
+        <v>0.1345975154747921</v>
       </c>
       <c r="Q34">
-        <v>1798.888497589557</v>
+        <v>198.4743906117945</v>
       </c>
       <c r="R34">
-        <v>16189.99647830602</v>
+        <v>1786.26951550615</v>
       </c>
       <c r="S34">
-        <v>0.07847861919344425</v>
+        <v>0.01274880484870373</v>
       </c>
       <c r="T34">
-        <v>0.09312348291890085</v>
+        <v>0.01550453630766323</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>78.37889633333333</v>
+        <v>14.38574166666667</v>
       </c>
       <c r="H35">
-        <v>235.136689</v>
+        <v>43.157225</v>
       </c>
       <c r="I35">
-        <v>0.4042376582518636</v>
+        <v>0.1097797468348313</v>
       </c>
       <c r="J35">
-        <v>0.4243784456181135</v>
+        <v>0.1151918462459805</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>40.4313585</v>
+        <v>44.3885385</v>
       </c>
       <c r="N35">
-        <v>80.862717</v>
+        <v>88.77707700000001</v>
       </c>
       <c r="O35">
-        <v>0.3420013471084464</v>
+        <v>0.373633556934534</v>
       </c>
       <c r="P35">
-        <v>0.2577079799800836</v>
+        <v>0.2886984221604453</v>
       </c>
       <c r="Q35">
-        <v>3168.965256487335</v>
+        <v>638.5620478218876</v>
       </c>
       <c r="R35">
-        <v>19013.79153892401</v>
+        <v>3831.372286931326</v>
       </c>
       <c r="S35">
-        <v>0.1382498236741011</v>
+        <v>0.04101739728927065</v>
       </c>
       <c r="T35">
-        <v>0.1093657119673318</v>
+        <v>0.03325570425696319</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>78.37889633333333</v>
+        <v>14.38574166666667</v>
       </c>
       <c r="H36">
-        <v>235.136689</v>
+        <v>43.157225</v>
       </c>
       <c r="I36">
-        <v>0.4042376582518636</v>
+        <v>0.1097797468348313</v>
       </c>
       <c r="J36">
-        <v>0.4243784456181135</v>
+        <v>0.1151918462459805</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>1.272071333333333</v>
+        <v>4.496439</v>
       </c>
       <c r="N36">
-        <v>3.816214</v>
+        <v>13.489317</v>
       </c>
       <c r="O36">
-        <v>0.01076021498555478</v>
+        <v>0.03784806965674616</v>
       </c>
       <c r="P36">
-        <v>0.01216220326991628</v>
+        <v>0.04386655503336825</v>
       </c>
       <c r="Q36">
-        <v>99.70354716393844</v>
+        <v>64.684609873925</v>
       </c>
       <c r="R36">
-        <v>897.3319244754459</v>
+        <v>582.1614888653251</v>
       </c>
       <c r="S36">
-        <v>0.004349684108047274</v>
+        <v>0.004154951505104653</v>
       </c>
       <c r="T36">
-        <v>0.005161376918978607</v>
+        <v>0.005053069462744598</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>78.37889633333333</v>
+        <v>14.38574166666667</v>
       </c>
       <c r="H37">
-        <v>235.136689</v>
+        <v>43.157225</v>
       </c>
       <c r="I37">
-        <v>0.4042376582518636</v>
+        <v>0.1097797468348313</v>
       </c>
       <c r="J37">
-        <v>0.4243784456181135</v>
+        <v>0.1151918462459805</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>23.37486266666667</v>
+        <v>21.871643</v>
       </c>
       <c r="N37">
-        <v>70.124588</v>
+        <v>65.61492899999999</v>
       </c>
       <c r="O37">
-        <v>0.1977236189200749</v>
+        <v>0.1841011226375993</v>
       </c>
       <c r="P37">
-        <v>0.223485761929266</v>
+        <v>0.2133763254276736</v>
       </c>
       <c r="Q37">
-        <v>1832.09593775657</v>
+        <v>314.6398060235583</v>
       </c>
       <c r="R37">
-        <v>16488.86343980913</v>
+        <v>2831.758254212025</v>
       </c>
       <c r="S37">
-        <v>0.07992733269333495</v>
+        <v>0.02021057463516388</v>
       </c>
       <c r="T37">
-        <v>0.09484254026532167</v>
+        <v>0.02457921287119689</v>
       </c>
     </row>
   </sheetData>
